--- a/Задачи ch-shop.ru.xlsx
+++ b/Задачи ch-shop.ru.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.0 iT\Project\WEB\ch-shop.ru\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_IT\Project\WEB\ch-shop.ru\myshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58868D9-9805-4D82-93AE-B503E54B9AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B154BA43-622C-4FF0-A934-66CF03A53005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9DEDFA7B-05A6-4501-B959-D963F8A25CA0}"/>
+    <workbookView xWindow="31845" yWindow="3375" windowWidth="24045" windowHeight="11505" xr2:uid="{9DEDFA7B-05A6-4501-B959-D963F8A25CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="86">
   <si>
     <t>Уменьшить шрифт в фильтре</t>
   </si>
@@ -264,6 +264,36 @@
   </si>
   <si>
     <t>Дублирование характеристики при сохранении, для тонкой настройки в разных категориях товара.</t>
+  </si>
+  <si>
+    <t>Скрыть пустые категории в каталоге</t>
+  </si>
+  <si>
+    <t>Каталог</t>
+  </si>
+  <si>
+    <t>Некорректно отображается поисковый запрос</t>
+  </si>
+  <si>
+    <t>Поиск на сайте</t>
+  </si>
+  <si>
+    <t>При нажатии на кнопку фильтр выводится всплывающие окно</t>
+  </si>
+  <si>
+    <t>Проблема с анимацией при загрузке в фильтре на мобильной версии</t>
+  </si>
+  <si>
+    <t>Проблема с поиском, учитывается регистр поиска</t>
+  </si>
+  <si>
+    <t>Неправильное расставление категорий при загрузке характеристик. Из за этого некорректно отрабатывала фильтрация</t>
+  </si>
+  <si>
+    <t>Скрыть категории в которых нет товаров</t>
+  </si>
+  <si>
+    <t>Категории товаров</t>
   </si>
 </sst>
 </file>
@@ -321,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -330,10 +360,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -653,24 +686,24 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -686,11 +719,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -706,11 +739,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -726,11 +759,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -746,11 +779,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -766,11 +799,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -786,11 +819,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -806,11 +839,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -826,11 +859,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -846,11 +879,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -866,11 +899,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -886,11 +919,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -906,11 +939,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -926,11 +959,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -946,11 +979,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -966,11 +999,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -986,11 +1019,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1006,11 +1039,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1026,11 +1059,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1046,11 +1079,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1066,11 +1099,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1086,11 +1119,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1106,11 +1139,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1126,11 +1159,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1146,11 +1179,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1166,11 +1199,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1186,11 +1219,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1206,11 +1239,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1226,11 +1259,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>47</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1246,11 +1279,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1266,11 +1299,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>48</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1286,11 +1319,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1304,11 +1337,11 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -1324,11 +1357,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -1342,11 +1375,11 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -1360,11 +1393,11 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -1380,11 +1413,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -1398,11 +1431,11 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -1416,11 +1449,11 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -1436,11 +1469,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>36</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -1454,11 +1487,11 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>37</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -1472,11 +1505,11 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -1492,11 +1525,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>39</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -1510,11 +1543,11 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>40</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -1528,11 +1561,11 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -1546,11 +1579,11 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -1564,11 +1597,11 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -1582,11 +1615,11 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -1600,11 +1633,11 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -1618,11 +1651,11 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -1638,411 +1671,469 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="B52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="B53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="B54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10</v>
+      </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="B55" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="3">
+        <v>10</v>
+      </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="B56" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="B57" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="3"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="3"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="3"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="3"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="3"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="3"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="3"/>
+      <c r="B70" s="4"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="3"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="3"/>
+      <c r="B72" s="4"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="3"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="3"/>
+      <c r="B75" s="4"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="3"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="3"/>
+      <c r="B77" s="4"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="3"/>
+      <c r="B78" s="4"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79" s="4"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="3"/>
+      <c r="B80" s="4"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="3"/>
+      <c r="B81" s="4"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="3"/>
+      <c r="B82" s="4"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="3"/>
+      <c r="B83" s="4"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="3"/>
+      <c r="B84" s="4"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="3"/>
+      <c r="B85" s="4"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="3"/>
+      <c r="B86" s="4"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="3"/>
+      <c r="B87" s="4"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="3"/>
+      <c r="B88" s="4"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="3"/>
+      <c r="B89" s="4"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="3"/>
+      <c r="B90" s="4"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="3"/>
+      <c r="B91" s="4"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -2053,9 +2144,6 @@
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:F91">
-      <sortCondition ref="A1:A91"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
